--- a/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
@@ -966,6 +966,9 @@
       <c r="C61" t="str">
         <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1027,7 +1030,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101055240435151421215134111103152933520156220101515158202545532251204550251512060100100100100402035620150</v>
+        <v>010101055240435151421215134111103152933520156220101515158202545532251204550251512060100100100100402035620151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,12 +967,82 @@
         <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>17</v>
+      </c>
+      <c r="C64" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F65" t="str">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F66" t="str">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>18</v>
+      </c>
+      <c r="C67" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F67" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>329_柔丝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F69" t="str">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1030,7 +1100,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101055240435151421215134111103152933520156220101515158202545532251204550251512060100100100100402035620151</v>
+        <v>0101010552404351514212151341111031529335201562201015151582025455322512045502515120601001001001004020356201517152012576741501029</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
@@ -1102,6 +1102,9 @@
       <c r="G2" t="str">
         <v>0101010552404351514212151341111031529335201562201015151582025455322512045502515120601001001001004020356201517152012576741501029</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,31 +446,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F2" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F3" t="str">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F4" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>273_蓝调_bluetone_Rosa rugosa Thunb._20stems</v>
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F5" t="str">
         <v>5</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F6" t="str">
         <v>5</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -497,37 +497,31 @@
         <v>2</v>
       </c>
       <c r="C8" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F8" t="str">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F9" t="str">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>3</v>
-      </c>
       <c r="C10" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F10" t="str">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>4</v>
-      </c>
       <c r="C11" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F11" t="str">
         <v>15</v>
@@ -535,104 +529,104 @@
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F12" t="str">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
       <c r="C13" t="str">
-        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F13" t="str">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F14" t="str">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>5</v>
-      </c>
       <c r="C15" t="str">
-        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v>1</v>
+      </c>
       <c r="C16" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F16" t="str">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F17" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>159_赫莫莎_Hermosa_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F18" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F19" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>2</v>
+      </c>
       <c r="C20" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F20" t="str">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>6</v>
-      </c>
       <c r="C21" t="str">
-        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F21" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F22" t="str">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>7</v>
-      </c>
       <c r="C23" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F23" t="str">
         <v>5</v>
@@ -640,409 +634,50 @@
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F24" t="str">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>8</v>
-      </c>
       <c r="C25" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F25" t="str">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>9</v>
-      </c>
       <c r="C26" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F26" t="str">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="str">
+        <v>3</v>
+      </c>
       <c r="C27" t="str">
-        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F27" t="str">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F28" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="str">
-        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F29" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F30" t="str">
         <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>10</v>
-      </c>
-      <c r="C31" t="str">
-        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F35" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
-white_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>492_细米花_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
-      </c>
-      <c r="F38" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>11</v>
-      </c>
-      <c r="C39" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F39" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F40" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F41" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F43" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>12</v>
-      </c>
-      <c r="C44" t="str">
-        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F44" t="str">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F45" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>13</v>
-      </c>
-      <c r="C46" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F46" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
-      </c>
-      <c r="F47" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F48" t="str">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>329_柔丝_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F49" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>14</v>
-      </c>
-      <c r="C50" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F50" t="str">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F51" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F52" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F53" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F54" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>15</v>
-      </c>
-      <c r="C55" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F55" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="str">
-        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F56" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
-      </c>
-      <c r="F57" t="str">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F58" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>16</v>
-      </c>
-      <c r="C59" t="str">
-        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F59" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F60" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="str">
-        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F61" t="str">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F62" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="str">
-        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F63" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>17</v>
-      </c>
-      <c r="C64" t="str">
-        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F64" t="str">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F65" t="str">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F66" t="str">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>18</v>
-      </c>
-      <c r="C67" t="str">
-        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F67" t="str">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="str">
-        <v>329_柔丝_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F68" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F69" t="str">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L28"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1100,10 +735,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101010552404351514212151341111031529335201562201015151582025455322512045502515120601001001001004020356201517152012576741501029</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>014305552734040155080509020661020202055550502</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-2.xlsx
@@ -737,6 +737,9 @@
       <c r="G2" t="str">
         <v>014305552734040155080509020661020202055550502</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
